--- a/biology/Botanique/Lavigeria_macrocarpa/Lavigeria_macrocarpa.xlsx
+++ b/biology/Botanique/Lavigeria_macrocarpa/Lavigeria_macrocarpa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lavigeria macrocarpa Pierre [2] est une espèce de plantes à fleurs de la famille des Icacinaceae selon la classification phylogénétique. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lavigeria macrocarpa Pierre  est une espèce de plantes à fleurs de la famille des Icacinaceae selon la classification phylogénétique. 
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une liane cauliflore peut mesurer jusqu'à 24 mètres de long et possède un important tubercule souterrain. Sa tige à 4 angles mesure environ 4 centimètres de diamètre. Ses rameaux et ses feuilles pubescentes prennent des couleurs allant du jaune au rouille. Les feuilles sont alternées et elliptiques.
-Cette espèce d'Afrique tropicale se développe dans les forêts et forêts galeries entre 1 et 1 200 mètres d'altitude[3].
+Cette espèce d'Afrique tropicale se développe dans les forêts et forêts galeries entre 1 et 1 200 mètres d'altitude.
 </t>
         </is>
       </c>
